--- a/natmiOut/OldD0/LR-pairs_lrc2p/Dlk1-Notch4.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Dlk1-Notch4.xlsx
@@ -528,52 +528,52 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.87807348362012</v>
+        <v>4.224535333333333</v>
       </c>
       <c r="H2">
-        <v>3.87807348362012</v>
+        <v>12.673606</v>
       </c>
       <c r="I2">
-        <v>0.7020060799362215</v>
+        <v>0.7043225486309714</v>
       </c>
       <c r="J2">
-        <v>0.7020060799362215</v>
+        <v>0.7043225486309715</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>18.4353128443211</v>
+        <v>30.345835</v>
       </c>
       <c r="N2">
-        <v>18.4353128443211</v>
+        <v>91.03750500000001</v>
       </c>
       <c r="O2">
-        <v>0.785327884338429</v>
+        <v>0.8527782452855476</v>
       </c>
       <c r="P2">
-        <v>0.785327884338429</v>
+        <v>0.8527782452855475</v>
       </c>
       <c r="Q2">
-        <v>71.49349790380307</v>
+        <v>128.1970521770033</v>
       </c>
       <c r="R2">
-        <v>71.49349790380307</v>
+        <v>1153.77346959303</v>
       </c>
       <c r="S2">
-        <v>0.551304949549027</v>
+        <v>0.6006309471365646</v>
       </c>
       <c r="T2">
-        <v>0.551304949549027</v>
+        <v>0.6006309471365646</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.87807348362012</v>
+        <v>4.224535333333333</v>
       </c>
       <c r="H3">
-        <v>3.87807348362012</v>
+        <v>12.673606</v>
       </c>
       <c r="I3">
-        <v>0.7020060799362215</v>
+        <v>0.7043225486309714</v>
       </c>
       <c r="J3">
-        <v>0.7020060799362215</v>
+        <v>0.7043225486309715</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.12789594829197</v>
+        <v>3.224107666666666</v>
       </c>
       <c r="N3">
-        <v>3.12789594829197</v>
+        <v>9.672322999999999</v>
       </c>
       <c r="O3">
-        <v>0.1332455775633645</v>
+        <v>0.09060383010029813</v>
       </c>
       <c r="P3">
-        <v>0.1332455775633645</v>
+        <v>0.09060383010029811</v>
       </c>
       <c r="Q3">
-        <v>12.1302103365939</v>
+        <v>13.62035675630422</v>
       </c>
       <c r="R3">
-        <v>12.1302103365939</v>
+        <v>122.583210806738</v>
       </c>
       <c r="S3">
-        <v>0.09353920557409527</v>
+        <v>0.0638143205319695</v>
       </c>
       <c r="T3">
-        <v>0.09353920557409527</v>
+        <v>0.0638143205319695</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.87807348362012</v>
+        <v>4.224535333333333</v>
       </c>
       <c r="H4">
-        <v>3.87807348362012</v>
+        <v>12.673606</v>
       </c>
       <c r="I4">
-        <v>0.7020060799362215</v>
+        <v>0.7043225486309714</v>
       </c>
       <c r="J4">
-        <v>0.7020060799362215</v>
+        <v>0.7043225486309715</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.91146110256232</v>
+        <v>2.014730333333333</v>
       </c>
       <c r="N4">
-        <v>1.91146110256232</v>
+        <v>6.044191</v>
       </c>
       <c r="O4">
-        <v>0.08142653809820651</v>
+        <v>0.05661792461415433</v>
       </c>
       <c r="P4">
-        <v>0.08142653809820651</v>
+        <v>0.05661792461415433</v>
       </c>
       <c r="Q4">
-        <v>7.412786616818212</v>
+        <v>8.511299480305109</v>
       </c>
       <c r="R4">
-        <v>7.412786616818212</v>
+        <v>76.601695322746</v>
       </c>
       <c r="S4">
-        <v>0.05716192481309935</v>
+        <v>0.03987728096243739</v>
       </c>
       <c r="T4">
-        <v>0.05716192481309935</v>
+        <v>0.03987728096243739</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.64619987306142</v>
+        <v>1.773477</v>
       </c>
       <c r="H5">
-        <v>1.64619987306142</v>
+        <v>5.320431</v>
       </c>
       <c r="I5">
-        <v>0.2979939200637785</v>
+        <v>0.2956774513690286</v>
       </c>
       <c r="J5">
-        <v>0.2979939200637785</v>
+        <v>0.2956774513690286</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>18.4353128443211</v>
+        <v>30.345835</v>
       </c>
       <c r="N5">
-        <v>18.4353128443211</v>
+        <v>91.03750500000001</v>
       </c>
       <c r="O5">
-        <v>0.785327884338429</v>
+        <v>0.8527782452855476</v>
       </c>
       <c r="P5">
-        <v>0.785327884338429</v>
+        <v>0.8527782452855475</v>
       </c>
       <c r="Q5">
-        <v>30.34820966416896</v>
+        <v>53.81764041829501</v>
       </c>
       <c r="R5">
-        <v>30.34820966416896</v>
+        <v>484.3587637646551</v>
       </c>
       <c r="S5">
-        <v>0.2340229347894021</v>
+        <v>0.252147298148983</v>
       </c>
       <c r="T5">
-        <v>0.2340229347894021</v>
+        <v>0.252147298148983</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.64619987306142</v>
+        <v>1.773477</v>
       </c>
       <c r="H6">
-        <v>1.64619987306142</v>
+        <v>5.320431</v>
       </c>
       <c r="I6">
-        <v>0.2979939200637785</v>
+        <v>0.2956774513690286</v>
       </c>
       <c r="J6">
-        <v>0.2979939200637785</v>
+        <v>0.2956774513690286</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.12789594829197</v>
+        <v>3.224107666666666</v>
       </c>
       <c r="N6">
-        <v>3.12789594829197</v>
+        <v>9.672322999999999</v>
       </c>
       <c r="O6">
-        <v>0.1332455775633645</v>
+        <v>0.09060383010029813</v>
       </c>
       <c r="P6">
-        <v>0.1332455775633645</v>
+        <v>0.09060383010029811</v>
       </c>
       <c r="Q6">
-        <v>5.149141913027571</v>
+        <v>5.717880792357</v>
       </c>
       <c r="R6">
-        <v>5.149141913027571</v>
+        <v>51.460927131213</v>
       </c>
       <c r="S6">
-        <v>0.03970637198926923</v>
+        <v>0.02678950956832863</v>
       </c>
       <c r="T6">
-        <v>0.03970637198926923</v>
+        <v>0.02678950956832862</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.64619987306142</v>
+        <v>1.773477</v>
       </c>
       <c r="H7">
-        <v>1.64619987306142</v>
+        <v>5.320431</v>
       </c>
       <c r="I7">
-        <v>0.2979939200637785</v>
+        <v>0.2956774513690286</v>
       </c>
       <c r="J7">
-        <v>0.2979939200637785</v>
+        <v>0.2956774513690286</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.91146110256232</v>
+        <v>2.014730333333333</v>
       </c>
       <c r="N7">
-        <v>1.91146110256232</v>
+        <v>6.044191</v>
       </c>
       <c r="O7">
-        <v>0.08142653809820651</v>
+        <v>0.05661792461415433</v>
       </c>
       <c r="P7">
-        <v>0.08142653809820651</v>
+        <v>0.05661792461415433</v>
       </c>
       <c r="Q7">
-        <v>3.146647024399933</v>
+        <v>3.573077907369</v>
       </c>
       <c r="R7">
-        <v>3.146647024399933</v>
+        <v>32.157701166321</v>
       </c>
       <c r="S7">
-        <v>0.02426461328510716</v>
+        <v>0.01674064365171694</v>
       </c>
       <c r="T7">
-        <v>0.02426461328510716</v>
+        <v>0.01674064365171694</v>
       </c>
     </row>
   </sheetData>
